--- a/outcome/appendix/data/0_impact/Syphilis.xlsx
+++ b/outcome/appendix/data/0_impact/Syphilis.xlsx
@@ -409,7 +409,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>50165.8437879745</v>
+        <v>50165.8437879744</v>
       </c>
       <c r="C2" t="n">
         <v>47647.2413645166</v>
@@ -435,7 +435,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>46804.6122369142</v>
+        <v>46804.6122369141</v>
       </c>
       <c r="C3" t="n">
         <v>44223.2707730199</v>
@@ -461,16 +461,16 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>56969.3090676749</v>
+        <v>56969.3090676748</v>
       </c>
       <c r="C4" t="n">
         <v>54313.239549087</v>
       </c>
       <c r="D4" t="n">
-        <v>52907.2012783136</v>
+        <v>52907.2012783135</v>
       </c>
       <c r="E4" t="n">
-        <v>59625.3785862628</v>
+        <v>59625.3785862627</v>
       </c>
       <c r="F4" t="n">
         <v>61031.4168570362</v>
@@ -525,7 +525,7 @@
         <v>61433.0914935013</v>
       </c>
       <c r="F6" t="n">
-        <v>62937.8817326768</v>
+        <v>62937.8817326767</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
@@ -571,7 +571,7 @@
         <v>56327.2584005488</v>
       </c>
       <c r="D8" t="n">
-        <v>54697.5139605328</v>
+        <v>54697.5139605327</v>
       </c>
       <c r="E8" t="n">
         <v>62484.5794638418</v>
@@ -603,7 +603,7 @@
         <v>62801.1155143994</v>
       </c>
       <c r="F9" t="n">
-        <v>64502.8860697129</v>
+        <v>64502.8860697128</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
@@ -620,10 +620,10 @@
         <v>57282.1217357576</v>
       </c>
       <c r="C10" t="n">
-        <v>53919.7926713723</v>
+        <v>53919.7926713722</v>
       </c>
       <c r="D10" t="n">
-        <v>52139.883180911</v>
+        <v>52139.8831809109</v>
       </c>
       <c r="E10" t="n">
         <v>60644.4508001429</v>
@@ -646,7 +646,7 @@
         <v>57143.6346385476</v>
       </c>
       <c r="C11" t="n">
-        <v>53622.5817316325</v>
+        <v>53622.5817316324</v>
       </c>
       <c r="D11" t="n">
         <v>51758.6489144023</v>
@@ -669,7 +669,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>56203.6552172955</v>
+        <v>56203.6552172954</v>
       </c>
       <c r="C12" t="n">
         <v>52513.2229578852</v>
@@ -698,10 +698,10 @@
         <v>54928.5473510306</v>
       </c>
       <c r="C13" t="n">
-        <v>51058.5506082506</v>
+        <v>51058.5506082505</v>
       </c>
       <c r="D13" t="n">
-        <v>49009.8980823897</v>
+        <v>49009.8980823896</v>
       </c>
       <c r="E13" t="n">
         <v>58798.5440938106</v>
@@ -727,7 +727,7 @@
         <v>52724.6868649955</v>
       </c>
       <c r="D14" t="n">
-        <v>50575.7935122797</v>
+        <v>50575.7935122796</v>
       </c>
       <c r="E14" t="n">
         <v>60843.3992094397</v>
@@ -750,10 +750,10 @@
         <v>53422.8114861573</v>
       </c>
       <c r="C15" t="n">
-        <v>49164.9086333195</v>
+        <v>49164.9086333194</v>
       </c>
       <c r="D15" t="n">
-        <v>46910.9110167555</v>
+        <v>46910.9110167554</v>
       </c>
       <c r="E15" t="n">
         <v>57680.7143389952</v>
@@ -779,7 +779,7 @@
         <v>59122.2230316272</v>
       </c>
       <c r="D16" t="n">
-        <v>56758.4437867308</v>
+        <v>56758.4437867307</v>
       </c>
       <c r="E16" t="n">
         <v>68052.7936022088</v>
@@ -802,7 +802,7 @@
         <v>62011.9463604823</v>
       </c>
       <c r="C17" t="n">
-        <v>57330.8494329061</v>
+        <v>57330.849432906</v>
       </c>
       <c r="D17" t="n">
         <v>54852.8264055301</v>
@@ -825,13 +825,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>65208.6743152814</v>
+        <v>65208.6743152813</v>
       </c>
       <c r="C18" t="n">
-        <v>60303.7164162664</v>
+        <v>60303.7164162663</v>
       </c>
       <c r="D18" t="n">
-        <v>57707.1885489484</v>
+        <v>57707.1885489483</v>
       </c>
       <c r="E18" t="n">
         <v>70113.6322142963</v>
@@ -857,7 +857,7 @@
         <v>58961.2849023147</v>
       </c>
       <c r="D19" t="n">
-        <v>56242.1778546349</v>
+        <v>56242.1778546348</v>
       </c>
       <c r="E19" t="n">
         <v>69234.3158677481</v>
@@ -877,10 +877,10 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>66024.1181814385</v>
+        <v>66024.1181814384</v>
       </c>
       <c r="C20" t="n">
-        <v>60648.6745371876</v>
+        <v>60648.6745371875</v>
       </c>
       <c r="D20" t="n">
         <v>57803.0865609282</v>
@@ -906,10 +906,10 @@
         <v>66204.5936614125</v>
       </c>
       <c r="C21" t="n">
-        <v>60583.1517481652</v>
+        <v>60583.1517481651</v>
       </c>
       <c r="D21" t="n">
-        <v>57607.3401545147</v>
+        <v>57607.3401545146</v>
       </c>
       <c r="E21" t="n">
         <v>71826.0355746598</v>
@@ -929,13 +929,13 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>63900.3209850008</v>
+        <v>63900.3209850007</v>
       </c>
       <c r="C22" t="n">
         <v>58026.0871007743</v>
       </c>
       <c r="D22" t="n">
-        <v>54916.4555211433</v>
+        <v>54916.4555211432</v>
       </c>
       <c r="E22" t="n">
         <v>69774.5548692272</v>
@@ -955,7 +955,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>63761.8338877908</v>
+        <v>63761.8338877907</v>
       </c>
       <c r="C23" t="n">
         <v>57628.2683677873</v>
@@ -984,10 +984,10 @@
         <v>62821.8544665386</v>
       </c>
       <c r="C24" t="n">
-        <v>56422.6510820013</v>
+        <v>56422.6510820012</v>
       </c>
       <c r="D24" t="n">
-        <v>53035.1174357036</v>
+        <v>53035.1174357035</v>
       </c>
       <c r="E24" t="n">
         <v>69221.057851076</v>
@@ -1007,10 +1007,10 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>61546.7466002738</v>
+        <v>61546.7466002737</v>
       </c>
       <c r="C25" t="n">
-        <v>54875.8137104894</v>
+        <v>54875.8137104893</v>
       </c>
       <c r="D25" t="n">
         <v>51344.4351531296</v>
@@ -1036,10 +1036,10 @@
         <v>63402.2422864608</v>
       </c>
       <c r="C26" t="n">
-        <v>56453.6151661953</v>
+        <v>56453.6151661952</v>
       </c>
       <c r="D26" t="n">
-        <v>52775.234162967</v>
+        <v>52775.2341629669</v>
       </c>
       <c r="E26" t="n">
         <v>70350.8694067263</v>
@@ -1062,16 +1062,16 @@
         <v>60041.0107354005</v>
       </c>
       <c r="C27" t="n">
-        <v>52809.0502907325</v>
+        <v>52809.0502907324</v>
       </c>
       <c r="D27" t="n">
-        <v>48980.6816856333</v>
+        <v>48980.6816856332</v>
       </c>
       <c r="E27" t="n">
         <v>67272.9711800685</v>
       </c>
       <c r="F27" t="n">
-        <v>71101.3397851677</v>
+        <v>71101.3397851678</v>
       </c>
       <c r="G27" t="s">
         <v>8</v>
@@ -1091,7 +1091,7 @@
         <v>62684.86901261</v>
       </c>
       <c r="D28" t="n">
-        <v>58703.5775740399</v>
+        <v>58703.5775740398</v>
       </c>
       <c r="E28" t="n">
         <v>77726.5461197124</v>
@@ -1111,13 +1111,13 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>68630.1456097255</v>
+        <v>68630.1456097254</v>
       </c>
       <c r="C29" t="n">
-        <v>60815.0391568086</v>
+        <v>60815.0391568085</v>
       </c>
       <c r="D29" t="n">
-        <v>56677.9717020338</v>
+        <v>56677.9717020337</v>
       </c>
       <c r="E29" t="n">
         <v>76445.2520626423</v>
@@ -1140,10 +1140,10 @@
         <v>71826.8735645245</v>
       </c>
       <c r="C30" t="n">
-        <v>63712.2528816656</v>
+        <v>63712.2528816655</v>
       </c>
       <c r="D30" t="n">
-        <v>59416.6321710393</v>
+        <v>59416.6321710392</v>
       </c>
       <c r="E30" t="n">
         <v>79941.4942473835</v>
@@ -1163,13 +1163,13 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>70715.9996342746</v>
+        <v>70715.9996342745</v>
       </c>
       <c r="C31" t="n">
-        <v>62296.7514252432</v>
+        <v>62296.7514252431</v>
       </c>
       <c r="D31" t="n">
-        <v>57839.8706432475</v>
+        <v>57839.8706432474</v>
       </c>
       <c r="E31" t="n">
         <v>79135.247843306</v>
@@ -1192,16 +1192,16 @@
         <v>72642.3174306816</v>
       </c>
       <c r="C32" t="n">
-        <v>63913.4520064626</v>
+        <v>63913.4520064625</v>
       </c>
       <c r="D32" t="n">
-        <v>59292.6697712867</v>
+        <v>59292.6697712866</v>
       </c>
       <c r="E32" t="n">
         <v>81371.1828549007</v>
       </c>
       <c r="F32" t="n">
-        <v>85991.9650900765</v>
+        <v>85991.9650900766</v>
       </c>
       <c r="G32" t="s">
         <v>8</v>
@@ -1215,13 +1215,13 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>72822.7929106557</v>
+        <v>72822.7929106556</v>
       </c>
       <c r="C33" t="n">
-        <v>63779.435658996</v>
+        <v>63779.4356589959</v>
       </c>
       <c r="D33" t="n">
-        <v>58992.1715067874</v>
+        <v>58992.1715067872</v>
       </c>
       <c r="E33" t="n">
         <v>81866.1501623154</v>
@@ -1244,10 +1244,10 @@
         <v>70518.5202342439</v>
       </c>
       <c r="C34" t="n">
-        <v>61155.9038929507</v>
+        <v>61155.9038929506</v>
       </c>
       <c r="D34" t="n">
-        <v>56199.6341875457</v>
+        <v>56199.6341875456</v>
       </c>
       <c r="E34" t="n">
         <v>79881.1365755372</v>
@@ -1270,16 +1270,16 @@
         <v>70380.0331370339</v>
       </c>
       <c r="C35" t="n">
-        <v>60693.4907868783</v>
+        <v>60693.4907868782</v>
       </c>
       <c r="D35" t="n">
-        <v>55565.7450104698</v>
+        <v>55565.7450104697</v>
       </c>
       <c r="E35" t="n">
         <v>80066.5754871896</v>
       </c>
       <c r="F35" t="n">
-        <v>85194.3212635981</v>
+        <v>85194.3212635982</v>
       </c>
       <c r="G35" t="s">
         <v>8</v>
@@ -1296,10 +1296,10 @@
         <v>69440.0537157818</v>
       </c>
       <c r="C36" t="n">
-        <v>59425.0124172954</v>
+        <v>59425.0124172953</v>
       </c>
       <c r="D36" t="n">
-        <v>54123.3698019565</v>
+        <v>54123.3698019564</v>
       </c>
       <c r="E36" t="n">
         <v>79455.0950142682</v>
@@ -1319,16 +1319,16 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>68164.945849517</v>
+        <v>68164.9458495169</v>
       </c>
       <c r="C37" t="n">
-        <v>57816.9208558646</v>
+        <v>57816.9208558645</v>
       </c>
       <c r="D37" t="n">
-        <v>52339.0073200281</v>
+        <v>52339.007320028</v>
       </c>
       <c r="E37" t="n">
-        <v>78512.9708431693</v>
+        <v>78512.9708431694</v>
       </c>
       <c r="F37" t="n">
         <v>83990.8843790058</v>
@@ -1345,19 +1345,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>70020.441535704</v>
+        <v>70020.4415357039</v>
       </c>
       <c r="C38" t="n">
-        <v>59334.9682070011</v>
+        <v>59334.968207001</v>
       </c>
       <c r="D38" t="n">
-        <v>53678.4203130768</v>
+        <v>53678.4203130767</v>
       </c>
       <c r="E38" t="n">
         <v>80705.9148644068</v>
       </c>
       <c r="F38" t="n">
-        <v>86362.4627583311</v>
+        <v>86362.4627583312</v>
       </c>
       <c r="G38" t="s">
         <v>8</v>
@@ -1371,19 +1371,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>66659.2099846437</v>
+        <v>66659.2099846436</v>
       </c>
       <c r="C39" t="n">
-        <v>55632.0293667019</v>
+        <v>55632.0293667018</v>
       </c>
       <c r="D39" t="n">
-        <v>49794.5925605297</v>
+        <v>49794.5925605295</v>
       </c>
       <c r="E39" t="n">
         <v>77686.3906025855</v>
       </c>
       <c r="F39" t="n">
-        <v>83523.8274087577</v>
+        <v>83523.8274087578</v>
       </c>
       <c r="G39" t="s">
         <v>8</v>
